--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\elec\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Wind_Capacity" sheetId="2" r:id="rId2"/>
-    <sheet name="Solar_Capacity" sheetId="3" r:id="rId3"/>
-    <sheet name="BGSaWC" sheetId="4" r:id="rId4"/>
+    <sheet name="IEA 2019 outlook" sheetId="5" r:id="rId2"/>
+    <sheet name="IEA 2017 Wind" sheetId="2" r:id="rId3"/>
+    <sheet name="IEA 2017 Solar" sheetId="3" r:id="rId4"/>
+    <sheet name="BGSaWC" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -87,9 +88,6 @@
   </si>
   <si>
     <t>Reference Technology Scenario (RTS)</t>
-  </si>
-  <si>
-    <t>Main Source</t>
   </si>
   <si>
     <t>Alternate Source (not presently used)</t>
@@ -154,6 +152,48 @@
   <si>
     <t>in AC.  Accordingly, we do not apply a DC-to-AC derate factor.</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Global Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Data manually extra from website</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/weo2019/</t>
+  </si>
+  <si>
+    <t>World Energy Outlook</t>
+  </si>
+  <si>
+    <t>Year over year trend in IEA 2017 Data, 2040-2050</t>
+  </si>
+  <si>
+    <t>Solar Capacity</t>
+  </si>
+  <si>
+    <t>Wind Capacity</t>
+  </si>
+  <si>
+    <t>Interactive graph: Installed power generation capacity in the Stated Policies Scenario</t>
+  </si>
+  <si>
+    <t>Solar and Onshore Wind, 2017-2040</t>
+  </si>
+  <si>
+    <t>Year over year growth for solar and onshore wind, 2040-2050; Offshore wind</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +205,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0;\-#,##0;_(* &quot; - &quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +277,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -290,7 +336,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,6 +373,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1603,9 +1664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1622,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,32 +1695,32 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,38 +1729,69 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>23</v>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1705,10 +1799,806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2028</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2030</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2031</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2032</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2033</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2034</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2035</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2036</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2037</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2038</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2039</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>399</v>
+      </c>
+      <c r="C3">
+        <v>495</v>
+      </c>
+      <c r="D3">
+        <v>607</v>
+      </c>
+      <c r="E3">
+        <v>715</v>
+      </c>
+      <c r="F3">
+        <v>825</v>
+      </c>
+      <c r="G3">
+        <v>943</v>
+      </c>
+      <c r="H3">
+        <v>1070</v>
+      </c>
+      <c r="I3">
+        <v>1202</v>
+      </c>
+      <c r="J3">
+        <v>1309</v>
+      </c>
+      <c r="K3">
+        <v>1415</v>
+      </c>
+      <c r="L3">
+        <v>1522</v>
+      </c>
+      <c r="M3">
+        <v>1631</v>
+      </c>
+      <c r="N3">
+        <v>1746</v>
+      </c>
+      <c r="O3">
+        <v>1866</v>
+      </c>
+      <c r="P3">
+        <v>1985</v>
+      </c>
+      <c r="Q3">
+        <v>2104</v>
+      </c>
+      <c r="R3">
+        <v>2225</v>
+      </c>
+      <c r="S3">
+        <v>2349</v>
+      </c>
+      <c r="T3">
+        <v>2476</v>
+      </c>
+      <c r="U3">
+        <v>2606</v>
+      </c>
+      <c r="V3">
+        <v>2738</v>
+      </c>
+      <c r="W3">
+        <v>2872</v>
+      </c>
+      <c r="X3">
+        <v>3007</v>
+      </c>
+      <c r="Y3">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4">
+        <f>'IEA 2017 Solar'!AE12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.0413981483651269</v>
+      </c>
+      <c r="AA4">
+        <f>'IEA 2017 Solar'!AF12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.0827962967302536</v>
+      </c>
+      <c r="AB4">
+        <f>'IEA 2017 Solar'!AG12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.1241944450953805</v>
+      </c>
+      <c r="AC4">
+        <f>'IEA 2017 Solar'!AH12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.1655925934605074</v>
+      </c>
+      <c r="AD4">
+        <f>'IEA 2017 Solar'!AI12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2069907418256338</v>
+      </c>
+      <c r="AE4">
+        <f>'IEA 2017 Solar'!AJ12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2512680731867143</v>
+      </c>
+      <c r="AF4">
+        <f>'IEA 2017 Solar'!AK12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.2955454045477948</v>
+      </c>
+      <c r="AG4">
+        <f>'IEA 2017 Solar'!AL12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.3398227359088752</v>
+      </c>
+      <c r="AH4">
+        <f>'IEA 2017 Solar'!AM12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.3841000672699557</v>
+      </c>
+      <c r="AI4">
+        <f>'IEA 2017 Solar'!AN12/'IEA 2017 Solar'!$AD$12</f>
+        <v>1.4283773986310362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="19">
+        <f>B3</f>
+        <v>399</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C3</f>
+        <v>495</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D3</f>
+        <v>607</v>
+      </c>
+      <c r="E5" s="19">
+        <f>E3</f>
+        <v>715</v>
+      </c>
+      <c r="F5" s="19">
+        <f>F3</f>
+        <v>825</v>
+      </c>
+      <c r="G5" s="19">
+        <f>G3</f>
+        <v>943</v>
+      </c>
+      <c r="H5" s="19">
+        <f>H3</f>
+        <v>1070</v>
+      </c>
+      <c r="I5" s="19">
+        <f>I3</f>
+        <v>1202</v>
+      </c>
+      <c r="J5" s="19">
+        <f>J3</f>
+        <v>1309</v>
+      </c>
+      <c r="K5" s="19">
+        <f>K3</f>
+        <v>1415</v>
+      </c>
+      <c r="L5" s="19">
+        <f>L3</f>
+        <v>1522</v>
+      </c>
+      <c r="M5" s="19">
+        <f>M3</f>
+        <v>1631</v>
+      </c>
+      <c r="N5" s="19">
+        <f>N3</f>
+        <v>1746</v>
+      </c>
+      <c r="O5" s="19">
+        <f>O3</f>
+        <v>1866</v>
+      </c>
+      <c r="P5" s="19">
+        <f>P3</f>
+        <v>1985</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>Q3</f>
+        <v>2104</v>
+      </c>
+      <c r="R5" s="19">
+        <f>R3</f>
+        <v>2225</v>
+      </c>
+      <c r="S5" s="19">
+        <f>S3</f>
+        <v>2349</v>
+      </c>
+      <c r="T5" s="19">
+        <f>T3</f>
+        <v>2476</v>
+      </c>
+      <c r="U5" s="19">
+        <f>U3</f>
+        <v>2606</v>
+      </c>
+      <c r="V5" s="19">
+        <f>V3</f>
+        <v>2738</v>
+      </c>
+      <c r="W5" s="19">
+        <f>W3</f>
+        <v>2872</v>
+      </c>
+      <c r="X5" s="19">
+        <f>X3</f>
+        <v>3007</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>Y3</f>
+        <v>3142</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>$Y$5*Z4</f>
+        <v>3272.0729821632285</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>$Y$5*AA4</f>
+        <v>3402.1459643264566</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>$Y$5*AB4</f>
+        <v>3532.2189464896855</v>
+      </c>
+      <c r="AC5" s="19">
+        <f>$Y$5*AC4</f>
+        <v>3662.2919286529141</v>
+      </c>
+      <c r="AD5" s="19">
+        <f>$Y$5*AD4</f>
+        <v>3792.3649108161417</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>$Y$5*AE4</f>
+        <v>3931.4842859526561</v>
+      </c>
+      <c r="AF5" s="19">
+        <f>$Y$5*AF4</f>
+        <v>4070.6036610891711</v>
+      </c>
+      <c r="AG5" s="19">
+        <f>$Y$5*AG4</f>
+        <v>4209.723036225686</v>
+      </c>
+      <c r="AH5" s="19">
+        <f>$Y$5*AH4</f>
+        <v>4348.8424113622004</v>
+      </c>
+      <c r="AI5" s="19">
+        <f>$Y$5*AI4</f>
+        <v>4487.9617864987158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2025</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2026</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2027</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2028</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2031</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2032</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2033</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2034</v>
+      </c>
+      <c r="T8" s="5">
+        <v>2035</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2036</v>
+      </c>
+      <c r="V8" s="5">
+        <v>2037</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2038</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2039</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>515</v>
+      </c>
+      <c r="C9">
+        <v>566</v>
+      </c>
+      <c r="D9">
+        <v>624</v>
+      </c>
+      <c r="E9">
+        <v>688</v>
+      </c>
+      <c r="F9">
+        <v>747</v>
+      </c>
+      <c r="G9">
+        <v>804</v>
+      </c>
+      <c r="H9">
+        <v>861</v>
+      </c>
+      <c r="I9">
+        <v>921</v>
+      </c>
+      <c r="J9">
+        <v>980</v>
+      </c>
+      <c r="K9">
+        <v>1040</v>
+      </c>
+      <c r="L9">
+        <v>1100</v>
+      </c>
+      <c r="M9">
+        <v>1162</v>
+      </c>
+      <c r="N9">
+        <v>1224</v>
+      </c>
+      <c r="O9">
+        <v>1288</v>
+      </c>
+      <c r="P9">
+        <v>1352</v>
+      </c>
+      <c r="Q9">
+        <v>1415</v>
+      </c>
+      <c r="R9">
+        <v>1476</v>
+      </c>
+      <c r="S9">
+        <v>1536</v>
+      </c>
+      <c r="T9">
+        <v>1594</v>
+      </c>
+      <c r="U9">
+        <v>1649</v>
+      </c>
+      <c r="V9">
+        <v>1703</v>
+      </c>
+      <c r="W9">
+        <v>1754</v>
+      </c>
+      <c r="X9">
+        <v>1806</v>
+      </c>
+      <c r="Y9">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10">
+        <f>'IEA 2017 Wind'!AE9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0207393875977682</v>
+      </c>
+      <c r="AA10">
+        <f>'IEA 2017 Wind'!AF9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0414787751955361</v>
+      </c>
+      <c r="AB10">
+        <f>'IEA 2017 Wind'!AG9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0622181627933043</v>
+      </c>
+      <c r="AC10">
+        <f>'IEA 2017 Wind'!AH9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.0829575503910722</v>
+      </c>
+      <c r="AD10">
+        <f>'IEA 2017 Wind'!AI9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1036969379888402</v>
+      </c>
+      <c r="AE10">
+        <f>'IEA 2017 Wind'!AJ9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.135431778422568</v>
+      </c>
+      <c r="AF10">
+        <f>'IEA 2017 Wind'!AK9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1671666188562957</v>
+      </c>
+      <c r="AG10">
+        <f>'IEA 2017 Wind'!AL9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.1989014592900236</v>
+      </c>
+      <c r="AH10">
+        <f>'IEA 2017 Wind'!AM9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.2306362997237512</v>
+      </c>
+      <c r="AI10">
+        <f>'IEA 2017 Wind'!AN9/'IEA 2017 Wind'!$AD$9</f>
+        <v>1.2623711401574789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:X11" si="0">B9</f>
+        <v>515</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>804</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>861</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1162</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1288</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1415</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1476</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1594</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1649</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1703</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1754</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>1806</v>
+      </c>
+      <c r="Y11">
+        <f>Y9</f>
+        <v>1856</v>
+      </c>
+      <c r="Z11">
+        <f>$Y$9*Z10</f>
+        <v>1894.4923033814578</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" ref="AA11:AI11" si="1">$Y$9*AA10</f>
+        <v>1932.9846067629151</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>1971.4769101443728</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>2009.9692135258301</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="1"/>
+        <v>2048.4615169072872</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>2107.3613807522861</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="1"/>
+        <v>2166.261244597285</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="1"/>
+        <v>2225.1611084422839</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="1"/>
+        <v>2284.0609722872823</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="1"/>
+        <v>2342.9608361322807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,11 +3324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:AN25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3267,21 +4157,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:AI14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -3387,7 +4283,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3494,7 +4390,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3601,7 +4497,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3708,7 +4604,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3815,289 +4711,289 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17">
-        <f>Wind_Capacity!G9*10^3</f>
-        <v>507658.45341373654</v>
+        <f>'IEA 2019 outlook'!B11*10^3</f>
+        <v>515000</v>
       </c>
       <c r="C6" s="17">
-        <f>Wind_Capacity!H9*10^3</f>
-        <v>563276.28609345283</v>
+        <f>'IEA 2019 outlook'!C11*10^3</f>
+        <v>566000</v>
       </c>
       <c r="D6" s="17">
-        <f>Wind_Capacity!I9*10^3</f>
-        <v>618894.11877316923</v>
+        <f>'IEA 2019 outlook'!D11*10^3</f>
+        <v>624000</v>
       </c>
       <c r="E6" s="17">
-        <f>Wind_Capacity!J9*10^3</f>
-        <v>674511.95145288552</v>
+        <f>'IEA 2019 outlook'!E11*10^3</f>
+        <v>688000</v>
       </c>
       <c r="F6" s="17">
-        <f>Wind_Capacity!K9*10^3</f>
-        <v>730129.78413260193</v>
+        <f>'IEA 2019 outlook'!F11*10^3</f>
+        <v>747000</v>
       </c>
       <c r="G6" s="17">
-        <f>Wind_Capacity!L9*10^3</f>
-        <v>785747.61681231821</v>
+        <f>'IEA 2019 outlook'!G11*10^3</f>
+        <v>804000</v>
       </c>
       <c r="H6" s="17">
-        <f>Wind_Capacity!M9*10^3</f>
-        <v>841365.44949203462</v>
+        <f>'IEA 2019 outlook'!H11*10^3</f>
+        <v>861000</v>
       </c>
       <c r="I6" s="17">
-        <f>Wind_Capacity!N9*10^3</f>
-        <v>896983.28217175091</v>
+        <f>'IEA 2019 outlook'!I11*10^3</f>
+        <v>921000</v>
       </c>
       <c r="J6" s="17">
-        <f>Wind_Capacity!O9*10^3</f>
-        <v>952601.11485146743</v>
+        <f>'IEA 2019 outlook'!J11*10^3</f>
+        <v>980000</v>
       </c>
       <c r="K6" s="17">
-        <f>Wind_Capacity!P9*10^3</f>
-        <v>1005542.291022492</v>
+        <f>'IEA 2019 outlook'!K11*10^3</f>
+        <v>1040000</v>
       </c>
       <c r="L6" s="17">
-        <f>Wind_Capacity!Q9*10^3</f>
-        <v>1058483.4671935167</v>
+        <f>'IEA 2019 outlook'!L11*10^3</f>
+        <v>1100000</v>
       </c>
       <c r="M6" s="17">
-        <f>Wind_Capacity!R9*10^3</f>
-        <v>1111424.6433645412</v>
+        <f>'IEA 2019 outlook'!M11*10^3</f>
+        <v>1162000</v>
       </c>
       <c r="N6" s="17">
-        <f>Wind_Capacity!S9*10^3</f>
-        <v>1164365.8195355658</v>
+        <f>'IEA 2019 outlook'!N11*10^3</f>
+        <v>1224000</v>
       </c>
       <c r="O6" s="17">
-        <f>Wind_Capacity!T9*10^3</f>
-        <v>1217306.9957065906</v>
+        <f>'IEA 2019 outlook'!O11*10^3</f>
+        <v>1288000</v>
       </c>
       <c r="P6" s="17">
-        <f>Wind_Capacity!U9*10^3</f>
-        <v>1265276.7832629781</v>
+        <f>'IEA 2019 outlook'!P11*10^3</f>
+        <v>1352000</v>
       </c>
       <c r="Q6" s="17">
-        <f>Wind_Capacity!V9*10^3</f>
-        <v>1313246.5708193656</v>
+        <f>'IEA 2019 outlook'!Q11*10^3</f>
+        <v>1415000</v>
       </c>
       <c r="R6" s="17">
-        <f>Wind_Capacity!W9*10^3</f>
-        <v>1361216.358375753</v>
+        <f>'IEA 2019 outlook'!R11*10^3</f>
+        <v>1476000</v>
       </c>
       <c r="S6" s="17">
-        <f>Wind_Capacity!X9*10^3</f>
-        <v>1409186.1459321405</v>
+        <f>'IEA 2019 outlook'!S11*10^3</f>
+        <v>1536000</v>
       </c>
       <c r="T6" s="17">
-        <f>Wind_Capacity!Y9*10^3</f>
-        <v>1457155.9334885282</v>
+        <f>'IEA 2019 outlook'!T11*10^3</f>
+        <v>1594000</v>
       </c>
       <c r="U6" s="17">
-        <f>Wind_Capacity!Z9*10^3</f>
-        <v>1494128.9623054031</v>
+        <f>'IEA 2019 outlook'!U11*10^3</f>
+        <v>1649000</v>
       </c>
       <c r="V6" s="17">
-        <f>Wind_Capacity!AA9*10^3</f>
-        <v>1531101.9911222779</v>
+        <f>'IEA 2019 outlook'!V11*10^3</f>
+        <v>1703000</v>
       </c>
       <c r="W6" s="17">
-        <f>Wind_Capacity!AB9*10^3</f>
-        <v>1568075.0199391528</v>
+        <f>'IEA 2019 outlook'!W11*10^3</f>
+        <v>1754000</v>
       </c>
       <c r="X6" s="17">
-        <f>Wind_Capacity!AC9*10^3</f>
-        <v>1605048.0487560276</v>
+        <f>'IEA 2019 outlook'!X11*10^3</f>
+        <v>1806000</v>
       </c>
       <c r="Y6" s="17">
-        <f>Wind_Capacity!AD9*10^3</f>
-        <v>1642021.0775729024</v>
+        <f>'IEA 2019 outlook'!Y11*10^3</f>
+        <v>1856000</v>
       </c>
       <c r="Z6" s="17">
-        <f>Wind_Capacity!AE9*10^3</f>
-        <v>1676075.5891443917</v>
+        <f>'IEA 2019 outlook'!Z11*10^3</f>
+        <v>1894492.3033814577</v>
       </c>
       <c r="AA6" s="17">
-        <f>Wind_Capacity!AF9*10^3</f>
-        <v>1710130.100715881</v>
+        <f>'IEA 2019 outlook'!AA11*10^3</f>
+        <v>1932984.6067629152</v>
       </c>
       <c r="AB6" s="17">
-        <f>Wind_Capacity!AG9*10^3</f>
-        <v>1744184.61228737</v>
+        <f>'IEA 2019 outlook'!AB11*10^3</f>
+        <v>1971476.9101443728</v>
       </c>
       <c r="AC6" s="17">
-        <f>Wind_Capacity!AH9*10^3</f>
-        <v>1778239.1238588593</v>
+        <f>'IEA 2019 outlook'!AC11*10^3</f>
+        <v>2009969.2135258301</v>
       </c>
       <c r="AD6" s="17">
-        <f>Wind_Capacity!AI9*10^3</f>
-        <v>1812293.6354303483</v>
+        <f>'IEA 2019 outlook'!AD11*10^3</f>
+        <v>2048461.5169072873</v>
       </c>
       <c r="AE6" s="17">
-        <f>Wind_Capacity!AJ9*10^3</f>
-        <v>1864402.9123159421</v>
+        <f>'IEA 2019 outlook'!AE11*10^3</f>
+        <v>2107361.3807522859</v>
       </c>
       <c r="AF6" s="17">
-        <f>Wind_Capacity!AK9*10^3</f>
-        <v>1916512.1892015359</v>
+        <f>'IEA 2019 outlook'!AF11*10^3</f>
+        <v>2166261.2445972851</v>
       </c>
       <c r="AG6" s="17">
-        <f>Wind_Capacity!AL9*10^3</f>
-        <v>1968621.4660871297</v>
+        <f>'IEA 2019 outlook'!AG11*10^3</f>
+        <v>2225161.1084422837</v>
       </c>
       <c r="AH6" s="17">
-        <f>Wind_Capacity!AM9*10^3</f>
-        <v>2020730.7429727234</v>
+        <f>'IEA 2019 outlook'!AH11*10^3</f>
+        <v>2284060.9722872823</v>
       </c>
       <c r="AI6" s="17">
-        <f>Wind_Capacity!AN9*10^3</f>
-        <v>2072840.0198583168</v>
+        <f>'IEA 2019 outlook'!AI11*10^3</f>
+        <v>2342960.8361322805</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17">
-        <f>Solar_Capacity!G12*10^3</f>
-        <v>337846.48924046109</v>
+        <f>'IEA 2019 outlook'!B5*10^3</f>
+        <v>399000</v>
       </c>
       <c r="C7" s="17">
-        <f>Solar_Capacity!H12*10^3</f>
-        <v>391129.72331994592</v>
+        <f>'IEA 2019 outlook'!C5*10^3</f>
+        <v>495000</v>
       </c>
       <c r="D7" s="17">
-        <f>Solar_Capacity!I12*10^3</f>
-        <v>444412.95739943074</v>
+        <f>'IEA 2019 outlook'!D5*10^3</f>
+        <v>607000</v>
       </c>
       <c r="E7" s="17">
-        <f>Solar_Capacity!J12*10^3</f>
-        <v>497696.19147891557</v>
+        <f>'IEA 2019 outlook'!E5*10^3</f>
+        <v>715000</v>
       </c>
       <c r="F7" s="17">
-        <f>Solar_Capacity!K12*10^3</f>
-        <v>550979.42555840046</v>
+        <f>'IEA 2019 outlook'!F5*10^3</f>
+        <v>825000</v>
       </c>
       <c r="G7" s="17">
-        <f>Solar_Capacity!L12*10^3</f>
-        <v>604262.65963788528</v>
+        <f>'IEA 2019 outlook'!G5*10^3</f>
+        <v>943000</v>
       </c>
       <c r="H7" s="17">
-        <f>Solar_Capacity!M12*10^3</f>
-        <v>657545.89371737011</v>
+        <f>'IEA 2019 outlook'!H5*10^3</f>
+        <v>1070000</v>
       </c>
       <c r="I7" s="17">
-        <f>Solar_Capacity!N12*10^3</f>
-        <v>710829.12779685494</v>
+        <f>'IEA 2019 outlook'!I5*10^3</f>
+        <v>1202000</v>
       </c>
       <c r="J7" s="17">
-        <f>Solar_Capacity!O12*10^3</f>
-        <v>764112.36187634</v>
+        <f>'IEA 2019 outlook'!J5*10^3</f>
+        <v>1309000</v>
       </c>
       <c r="K7" s="17">
-        <f>Solar_Capacity!P12*10^3</f>
-        <v>824373.50851332222</v>
+        <f>'IEA 2019 outlook'!K5*10^3</f>
+        <v>1415000</v>
       </c>
       <c r="L7" s="17">
-        <f>Solar_Capacity!Q12*10^3</f>
-        <v>884634.65515030455</v>
+        <f>'IEA 2019 outlook'!L5*10^3</f>
+        <v>1522000</v>
       </c>
       <c r="M7" s="17">
-        <f>Solar_Capacity!R12*10^3</f>
-        <v>944895.80178728676</v>
+        <f>'IEA 2019 outlook'!M5*10^3</f>
+        <v>1631000</v>
       </c>
       <c r="N7" s="17">
-        <f>Solar_Capacity!S12*10^3</f>
-        <v>1005156.9484242691</v>
+        <f>'IEA 2019 outlook'!N5*10^3</f>
+        <v>1746000</v>
       </c>
       <c r="O7" s="17">
-        <f>Solar_Capacity!T12*10^3</f>
-        <v>1065418.0950612514</v>
+        <f>'IEA 2019 outlook'!O5*10^3</f>
+        <v>1866000</v>
       </c>
       <c r="P7" s="17">
-        <f>Solar_Capacity!U12*10^3</f>
-        <v>1121979.8241718928</v>
+        <f>'IEA 2019 outlook'!P5*10^3</f>
+        <v>1985000</v>
       </c>
       <c r="Q7" s="17">
-        <f>Solar_Capacity!V12*10^3</f>
-        <v>1178541.5532825342</v>
+        <f>'IEA 2019 outlook'!Q5*10^3</f>
+        <v>2104000</v>
       </c>
       <c r="R7" s="17">
-        <f>Solar_Capacity!W12*10^3</f>
-        <v>1235103.2823931756</v>
+        <f>'IEA 2019 outlook'!R5*10^3</f>
+        <v>2225000</v>
       </c>
       <c r="S7" s="17">
-        <f>Solar_Capacity!X12*10^3</f>
-        <v>1291665.011503817</v>
+        <f>'IEA 2019 outlook'!S5*10^3</f>
+        <v>2349000</v>
       </c>
       <c r="T7" s="17">
-        <f>Solar_Capacity!Y12*10^3</f>
-        <v>1348226.7406144589</v>
+        <f>'IEA 2019 outlook'!T5*10^3</f>
+        <v>2476000</v>
       </c>
       <c r="U7" s="17">
-        <f>Solar_Capacity!Z12*10^3</f>
-        <v>1414123.5129586288</v>
+        <f>'IEA 2019 outlook'!U5*10^3</f>
+        <v>2606000</v>
       </c>
       <c r="V7" s="17">
-        <f>Solar_Capacity!AA12*10^3</f>
-        <v>1480020.2853027987</v>
+        <f>'IEA 2019 outlook'!V5*10^3</f>
+        <v>2738000</v>
       </c>
       <c r="W7" s="17">
-        <f>Solar_Capacity!AB12*10^3</f>
-        <v>1545917.0576469686</v>
+        <f>'IEA 2019 outlook'!W5*10^3</f>
+        <v>2872000</v>
       </c>
       <c r="X7" s="17">
-        <f>Solar_Capacity!AC12*10^3</f>
-        <v>1611813.8299911385</v>
+        <f>'IEA 2019 outlook'!X5*10^3</f>
+        <v>3007000</v>
       </c>
       <c r="Y7" s="17">
-        <f>Solar_Capacity!AD12*10^3</f>
-        <v>1677710.6023353089</v>
+        <f>'IEA 2019 outlook'!Y5*10^3</f>
+        <v>3142000</v>
       </c>
       <c r="Z7" s="17">
-        <f>Solar_Capacity!AE12*10^3</f>
-        <v>1747164.7147645324</v>
+        <f>'IEA 2019 outlook'!Z5*10^3</f>
+        <v>3272072.9821632286</v>
       </c>
       <c r="AA7" s="17">
-        <f>Solar_Capacity!AF12*10^3</f>
-        <v>1816618.8271937559</v>
+        <f>'IEA 2019 outlook'!AA5*10^3</f>
+        <v>3402145.9643264567</v>
       </c>
       <c r="AB7" s="17">
-        <f>Solar_Capacity!AG12*10^3</f>
-        <v>1886072.9396229791</v>
+        <f>'IEA 2019 outlook'!AB5*10^3</f>
+        <v>3532218.9464896857</v>
       </c>
       <c r="AC7" s="17">
-        <f>Solar_Capacity!AH12*10^3</f>
-        <v>1955527.0520522026</v>
+        <f>'IEA 2019 outlook'!AC5*10^3</f>
+        <v>3662291.9286529142</v>
       </c>
       <c r="AD7" s="17">
-        <f>Solar_Capacity!AI12*10^3</f>
-        <v>2024981.1644814257</v>
+        <f>'IEA 2019 outlook'!AD5*10^3</f>
+        <v>3792364.9108161419</v>
       </c>
       <c r="AE7" s="17">
-        <f>Solar_Capacity!AJ12*10^3</f>
-        <v>2099265.7127490239</v>
+        <f>'IEA 2019 outlook'!AE5*10^3</f>
+        <v>3931484.2859526561</v>
       </c>
       <c r="AF7" s="17">
-        <f>Solar_Capacity!AK12*10^3</f>
-        <v>2173550.2610166222</v>
+        <f>'IEA 2019 outlook'!AF5*10^3</f>
+        <v>4070603.6610891712</v>
       </c>
       <c r="AG7" s="17">
-        <f>Solar_Capacity!AL12*10^3</f>
-        <v>2247834.8092842204</v>
+        <f>'IEA 2019 outlook'!AG5*10^3</f>
+        <v>4209723.0362256858</v>
       </c>
       <c r="AH7" s="17">
-        <f>Solar_Capacity!AM12*10^3</f>
-        <v>2322119.3575518192</v>
+        <f>'IEA 2019 outlook'!AH5*10^3</f>
+        <v>4348842.4113622</v>
       </c>
       <c r="AI7" s="17">
-        <f>Solar_Capacity!AN12*10^3</f>
-        <v>2396403.9058194174</v>
+        <f>'IEA 2019 outlook'!AI5*10^3</f>
+        <v>4487961.7864987161</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4204,7 +5100,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4311,7 +5207,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4418,7 +5314,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4525,7 +5421,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4632,7 +5528,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4739,143 +5635,464 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="17">
-        <f>Wind_Capacity!G10*10^3</f>
+        <f>'IEA 2017 Wind'!G10*10^3</f>
         <v>13143.338992959158</v>
       </c>
       <c r="C14" s="17">
-        <f>Wind_Capacity!H10*10^3</f>
+        <f>'IEA 2017 Wind'!H10*10^3</f>
         <v>14603.391990612212</v>
       </c>
       <c r="D14" s="17">
-        <f>Wind_Capacity!I10*10^3</f>
+        <f>'IEA 2017 Wind'!I10*10^3</f>
         <v>16063.444988265264</v>
       </c>
       <c r="E14" s="17">
-        <f>Wind_Capacity!J10*10^3</f>
+        <f>'IEA 2017 Wind'!J10*10^3</f>
         <v>17523.497985918319</v>
       </c>
       <c r="F14" s="17">
-        <f>Wind_Capacity!K10*10^3</f>
+        <f>'IEA 2017 Wind'!K10*10^3</f>
         <v>18983.550983571375</v>
       </c>
       <c r="G14" s="17">
-        <f>Wind_Capacity!L10*10^3</f>
+        <f>'IEA 2017 Wind'!L10*10^3</f>
         <v>20443.603981224427</v>
       </c>
       <c r="H14" s="17">
-        <f>Wind_Capacity!M10*10^3</f>
+        <f>'IEA 2017 Wind'!M10*10^3</f>
         <v>21903.656978877483</v>
       </c>
       <c r="I14" s="17">
-        <f>Wind_Capacity!N10*10^3</f>
+        <f>'IEA 2017 Wind'!N10*10^3</f>
         <v>23363.709976530536</v>
       </c>
       <c r="J14" s="17">
-        <f>Wind_Capacity!O10*10^3</f>
+        <f>'IEA 2017 Wind'!O10*10^3</f>
         <v>24823.762974183584</v>
       </c>
       <c r="K14" s="17">
-        <f>Wind_Capacity!P10*10^3</f>
+        <f>'IEA 2017 Wind'!P10*10^3</f>
         <v>27558.971215653626</v>
       </c>
       <c r="L14" s="17">
-        <f>Wind_Capacity!Q10*10^3</f>
+        <f>'IEA 2017 Wind'!Q10*10^3</f>
         <v>30294.179457123671</v>
       </c>
       <c r="M14" s="17">
-        <f>Wind_Capacity!R10*10^3</f>
+        <f>'IEA 2017 Wind'!R10*10^3</f>
         <v>33029.387698593717</v>
       </c>
       <c r="N14" s="17">
-        <f>Wind_Capacity!S10*10^3</f>
+        <f>'IEA 2017 Wind'!S10*10^3</f>
         <v>35764.595940063758</v>
       </c>
       <c r="O14" s="17">
-        <f>Wind_Capacity!T10*10^3</f>
+        <f>'IEA 2017 Wind'!T10*10^3</f>
         <v>38499.804181533807</v>
       </c>
       <c r="P14" s="17">
-        <f>Wind_Capacity!U10*10^3</f>
+        <f>'IEA 2017 Wind'!U10*10^3</f>
         <v>41725.219802228174</v>
       </c>
       <c r="Q14" s="17">
-        <f>Wind_Capacity!V10*10^3</f>
+        <f>'IEA 2017 Wind'!V10*10^3</f>
         <v>44950.635422922547</v>
       </c>
       <c r="R14" s="17">
-        <f>Wind_Capacity!W10*10^3</f>
+        <f>'IEA 2017 Wind'!W10*10^3</f>
         <v>48176.051043616913</v>
       </c>
       <c r="S14" s="17">
-        <f>Wind_Capacity!X10*10^3</f>
+        <f>'IEA 2017 Wind'!X10*10^3</f>
         <v>51401.466664311287</v>
       </c>
       <c r="T14" s="17">
-        <f>Wind_Capacity!Y10*10^3</f>
+        <f>'IEA 2017 Wind'!Y10*10^3</f>
         <v>54626.882285005646</v>
       </c>
       <c r="U14" s="17">
-        <f>Wind_Capacity!Z10*10^3</f>
+        <f>'IEA 2017 Wind'!Z10*10^3</f>
         <v>58529.875166205908</v>
       </c>
       <c r="V14" s="17">
-        <f>Wind_Capacity!AA10*10^3</f>
+        <f>'IEA 2017 Wind'!AA10*10^3</f>
         <v>62432.868047406162</v>
       </c>
       <c r="W14" s="17">
-        <f>Wind_Capacity!AB10*10^3</f>
+        <f>'IEA 2017 Wind'!AB10*10^3</f>
         <v>66335.860928606402</v>
       </c>
       <c r="X14" s="17">
-        <f>Wind_Capacity!AC10*10^3</f>
+        <f>'IEA 2017 Wind'!AC10*10^3</f>
         <v>70238.853809806649</v>
       </c>
       <c r="Y14" s="17">
-        <f>Wind_Capacity!AD10*10^3</f>
+        <f>'IEA 2017 Wind'!AD10*10^3</f>
         <v>74141.846691006926</v>
       </c>
       <c r="Z14" s="17">
-        <f>Wind_Capacity!AE10*10^3</f>
+        <f>'IEA 2017 Wind'!AE10*10^3</f>
         <v>79266.960143990786</v>
       </c>
       <c r="AA14" s="17">
-        <f>Wind_Capacity!AF10*10^3</f>
+        <f>'IEA 2017 Wind'!AF10*10^3</f>
         <v>84392.07359697466</v>
       </c>
       <c r="AB14" s="17">
-        <f>Wind_Capacity!AG10*10^3</f>
+        <f>'IEA 2017 Wind'!AG10*10^3</f>
         <v>89517.18704995852</v>
       </c>
       <c r="AC14" s="17">
-        <f>Wind_Capacity!AH10*10^3</f>
+        <f>'IEA 2017 Wind'!AH10*10^3</f>
         <v>94642.300502942395</v>
       </c>
       <c r="AD14" s="17">
-        <f>Wind_Capacity!AI10*10^3</f>
+        <f>'IEA 2017 Wind'!AI10*10^3</f>
         <v>99767.41395592624</v>
       </c>
       <c r="AE14" s="17">
-        <f>Wind_Capacity!AJ10*10^3</f>
+        <f>'IEA 2017 Wind'!AJ10*10^3</f>
         <v>106929.33781320453</v>
       </c>
       <c r="AF14" s="17">
-        <f>Wind_Capacity!AK10*10^3</f>
+        <f>'IEA 2017 Wind'!AK10*10^3</f>
         <v>114091.26167048281</v>
       </c>
       <c r="AG14" s="17">
-        <f>Wind_Capacity!AL10*10^3</f>
+        <f>'IEA 2017 Wind'!AL10*10^3</f>
         <v>121253.18552776109</v>
       </c>
       <c r="AH14" s="17">
-        <f>Wind_Capacity!AM10*10^3</f>
+        <f>'IEA 2017 Wind'!AM10*10^3</f>
         <v>128415.10938503935</v>
       </c>
       <c r="AI14" s="17">
-        <f>Wind_Capacity!AN10*10^3</f>
+        <f>'IEA 2017 Wind'!AN10*10^3</f>
         <v>135577.03324231764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
